--- a/FREELEC/SCJD/통합 문서1.xlsx
+++ b/FREELEC/SCJD/통합 문서1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="18840" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17970" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
   <si>
     <t>Origin airport</t>
   </si>
@@ -222,6 +222,189 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;한국공항공사 공통스크립트&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>항공사</t>
+  </si>
+  <si>
+    <t>편명</t>
+  </si>
+  <si>
+    <t>예정시각</t>
+  </si>
+  <si>
+    <t>출발지</t>
+  </si>
+  <si>
+    <t>도착지</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>아시아나항공</t>
+  </si>
+  <si>
+    <t>OZ8921</t>
+  </si>
+  <si>
+    <t>김포</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>국내선</t>
+  </si>
+  <si>
+    <t>중국동방항공</t>
+  </si>
+  <si>
+    <t>MU512</t>
+  </si>
+  <si>
+    <t>상해(홍차오)</t>
+  </si>
+  <si>
+    <t>국제선</t>
+  </si>
+  <si>
+    <t>일본항공</t>
+  </si>
+  <si>
+    <t>JL92</t>
+  </si>
+  <si>
+    <t>도쿄/하네다</t>
+  </si>
+  <si>
+    <t>제주항공</t>
+  </si>
+  <si>
+    <t>7C111</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>KE1335</t>
+  </si>
+  <si>
+    <t>여수</t>
+  </si>
+  <si>
+    <t>OZ8813</t>
+  </si>
+  <si>
+    <t>김해(부산)</t>
+  </si>
+  <si>
+    <t>에어부산</t>
+  </si>
+  <si>
+    <t>BX8813</t>
+  </si>
+  <si>
+    <t>OZ8923</t>
+  </si>
+  <si>
+    <t>중국남방항공</t>
+  </si>
+  <si>
+    <t>CZ318</t>
+  </si>
+  <si>
+    <t>북경</t>
+  </si>
+  <si>
+    <t>전일본공수</t>
+  </si>
+  <si>
+    <t>NH1162</t>
+  </si>
+  <si>
+    <t>JL972</t>
+  </si>
+  <si>
+    <t>오사카(간사이)</t>
+  </si>
+  <si>
+    <t>OZ8927</t>
+  </si>
+  <si>
+    <t>OZ8929</t>
+  </si>
+  <si>
+    <t>KE1609</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>티웨이항공</t>
+  </si>
+  <si>
+    <t>TW711</t>
+  </si>
+  <si>
+    <t>KE1113</t>
+  </si>
+  <si>
+    <t>이스타항공</t>
+  </si>
+  <si>
+    <t>ZE215</t>
+  </si>
+  <si>
+    <t>진에어</t>
+  </si>
+  <si>
+    <t>LJ335</t>
+  </si>
+  <si>
+    <t>BX8815</t>
+  </si>
+  <si>
+    <t>OZ8815</t>
+  </si>
+  <si>
+    <t>KE1611</t>
+  </si>
+  <si>
+    <t>KE1229</t>
+  </si>
+  <si>
+    <t>중화항공</t>
+  </si>
+  <si>
+    <t>쑹산</t>
+  </si>
+  <si>
+    <t>7C113</t>
+  </si>
+  <si>
+    <t>OZ8931</t>
+  </si>
+  <si>
+    <t>KE1231</t>
+  </si>
+  <si>
+    <t>KE1115</t>
+  </si>
+  <si>
+    <t>예약가능좌석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정시각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,8 +413,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="182" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -272,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,10 +468,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L37" sqref="C37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1842,6 +2028,1166 @@
         <v xml:space="preserve">'), '40m', 10), </v>
       </c>
     </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1">
+        <v>400</v>
+      </c>
+      <c r="H38" s="3">
+        <v>41175</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="1">
+        <v>50</v>
+      </c>
+      <c r="M38" t="str">
+        <f>"('"&amp;C38&amp;"', '"&amp;D38&amp;"', '"&amp;E38&amp;"', '"&amp;F38&amp;"', "&amp;G38&amp;", TIMESTAMP('"</f>
+        <v>('OZ8921', '김포', '제주', '아시아나항공', 400, TIMESTAMP('</v>
+      </c>
+      <c r="N38" s="5">
+        <f>H38+I38</f>
+        <v>41175.5</v>
+      </c>
+      <c r="O38" t="str">
+        <f>"'), '"&amp;K38&amp;"', "&amp;L38&amp;"), "</f>
+        <v xml:space="preserve">'), '국내선', 50), </v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>41175</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" s="1">
+        <v>22</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ref="M39:M64" si="3">"('"&amp;C39&amp;"', '"&amp;D39&amp;"', '"&amp;E39&amp;"', '"&amp;F39&amp;"', "&amp;G39&amp;", TIMESTAMP('"</f>
+        <v>('MU512', '김포', '상해(홍차오)', '중국동방항공', 2000, TIMESTAMP('</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" ref="N39:N64" si="4">H39+I39</f>
+        <v>41175.5</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" ref="O39:O64" si="5">"'), '"&amp;K39&amp;"', "&amp;L39&amp;"), "</f>
+        <v xml:space="preserve">'), '국제선', 22), </v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="1">
+        <v>100</v>
+      </c>
+      <c r="H40" s="3">
+        <v>41175</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="1">
+        <v>37</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="3"/>
+        <v>('JL92', '김포', '도쿄/하네다', '일본항공', 100, TIMESTAMP('</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="4"/>
+        <v>41175.503472222219</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국제선', 37), </v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>41175</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="3"/>
+        <v>('7C111', '김포', '제주', '제주항공', 100, TIMESTAMP('</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="4"/>
+        <v>41175.503472222219</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 0), </v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="1">
+        <v>800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>41175</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="1">
+        <v>14</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1335', '김포', '여수', '대한항공', 800, TIMESTAMP('</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="4"/>
+        <v>41175.513888888891</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 14), </v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="1">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>41180</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="3"/>
+        <v>('OZ8813', '김포', '김해(부산)', '아시아나항공', 800, TIMESTAMP('</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="4"/>
+        <v>41180.520833333336</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 4), </v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="1">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>41180</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" s="1">
+        <v>97</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="3"/>
+        <v>('BX8813', '김포', '김해(부산)', '에어부산', 700, TIMESTAMP('</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="4"/>
+        <v>41180.520833333336</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 97), </v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="1">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>41182</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" s="1">
+        <v>75</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v>('OZ8923', '김포', '제주', '아시아나항공', 700, TIMESTAMP('</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="4"/>
+        <v>41182.520833333336</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 75), </v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="1">
+        <v>756</v>
+      </c>
+      <c r="H46" s="3">
+        <v>41182</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="1">
+        <v>43</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="3"/>
+        <v>('CZ318', '김포', '북경', '중국남방항공', 756, TIMESTAMP('</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="4"/>
+        <v>41182.520833333336</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국제선', 43), </v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>756</v>
+      </c>
+      <c r="H47" s="3">
+        <v>41182</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" t="s">
+        <v>83</v>
+      </c>
+      <c r="L47" s="1">
+        <v>28</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v>('NH1162', '김포', '도쿄/하네다', '전일본공수', 756, TIMESTAMP('</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="4"/>
+        <v>41182.527777777781</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국제선', 28), </v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="1">
+        <v>536</v>
+      </c>
+      <c r="H48" s="3">
+        <v>41182</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L48" s="1">
+        <v>78</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="3"/>
+        <v>('JL972', '김포', '오사카(간사이)', '일본항공', 536, TIMESTAMP('</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="4"/>
+        <v>41182.53125</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국제선', 78), </v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="1">
+        <v>536</v>
+      </c>
+      <c r="H49" s="3">
+        <v>41182</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" s="1">
+        <v>21</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>('OZ8927', '김포', '제주', '아시아나항공', 536, TIMESTAMP('</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="4"/>
+        <v>41182.53125</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 21), </v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="1">
+        <v>700</v>
+      </c>
+      <c r="H50" s="3">
+        <v>41182</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" s="1">
+        <v>120</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>('OZ8929', '김포', '제주', '아시아나항공', 700, TIMESTAMP('</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="4"/>
+        <v>41182.534722222219</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 120), </v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="1">
+        <v>700</v>
+      </c>
+      <c r="H51" s="3">
+        <v>41188</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" s="1">
+        <v>99</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1609', '김포', '울산', '대한항공', 700, TIMESTAMP('</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="4"/>
+        <v>41188.534722222219</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 99), </v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="1">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>41188</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" s="1">
+        <v>43</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>('TW711', '김포', '제주', '티웨이항공', 800, TIMESTAMP('</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="4"/>
+        <v>41188.538194444445</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 43), </v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="1">
+        <v>800</v>
+      </c>
+      <c r="H53" s="3">
+        <v>41188</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53" s="1">
+        <v>95</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1113', '김포', '김해(부산)', '대한항공', 800, TIMESTAMP('</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="4"/>
+        <v>41188.541666666664</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 95), </v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="1">
+        <v>536</v>
+      </c>
+      <c r="H54" s="3">
+        <v>41188</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" s="1">
+        <v>5</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="3"/>
+        <v>('ZE215', '김포', '제주', '이스타항공', 536, TIMESTAMP('</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="4"/>
+        <v>41188.541666666664</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 5), </v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="1">
+        <v>536</v>
+      </c>
+      <c r="H55" s="3">
+        <v>41188</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" s="1">
+        <v>5</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="3"/>
+        <v>('LJ335', '김포', '제주', '진에어', 536, TIMESTAMP('</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="4"/>
+        <v>41188.548611111109</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 5), </v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="1">
+        <v>756</v>
+      </c>
+      <c r="H56" s="3">
+        <v>41193</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" s="1">
+        <v>7</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="3"/>
+        <v>('BX8815', '김포', '김해(부산)', '에어부산', 756, TIMESTAMP('</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="4"/>
+        <v>41193.5625</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 7), </v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="1">
+        <v>756</v>
+      </c>
+      <c r="H57" s="3">
+        <v>41193</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" s="1">
+        <v>11</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="3"/>
+        <v>('OZ8815', '김포', '김해(부산)', '아시아나항공', 756, TIMESTAMP('</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="4"/>
+        <v>41193.5625</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 11), </v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="1">
+        <v>387</v>
+      </c>
+      <c r="H58" s="3">
+        <v>41193</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" s="1">
+        <v>50</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1611', '김포', '울산', '대한항공', 387, TIMESTAMP('</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="4"/>
+        <v>41193.5625</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 50), </v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1645</v>
+      </c>
+      <c r="H59" s="3">
+        <v>41196</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" t="s">
+        <v>79</v>
+      </c>
+      <c r="L59" s="1">
+        <v>22</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1229', '김포', '제주', '대한항공', 1645, TIMESTAMP('</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="4"/>
+        <v>41196.569444444445</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 22), </v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>261</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="1">
+        <v>99</v>
+      </c>
+      <c r="H60" s="3">
+        <v>41196</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L60" s="1">
+        <v>7</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="3"/>
+        <v>('261', '김포', '쑹산', '중화항공', 99, TIMESTAMP('</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="4"/>
+        <v>41196.572916666664</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국제선', 7), </v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="1">
+        <v>99</v>
+      </c>
+      <c r="H61" s="3">
+        <v>41196</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" s="1">
+        <v>120</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="3"/>
+        <v>('7C113', '김포', '제주', '제주항공', 99, TIMESTAMP('</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="4"/>
+        <v>41196.572916666664</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 120), </v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="1">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>41197</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="K62" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" s="1">
+        <v>99</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="3"/>
+        <v>('OZ8931', '김포', '제주', '아시아나항공', 100, TIMESTAMP('</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" si="4"/>
+        <v>41197.579861111109</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 99), </v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="1">
+        <v>101</v>
+      </c>
+      <c r="H63" s="3">
+        <v>41198</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K63" t="s">
+        <v>79</v>
+      </c>
+      <c r="L63" s="1">
+        <v>43</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1231', '김포', '제주', '대한항공', 101, TIMESTAMP('</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="4"/>
+        <v>41198.583333333336</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 43), </v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="1">
+        <v>102</v>
+      </c>
+      <c r="H64" s="3">
+        <v>41199</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K64" t="s">
+        <v>79</v>
+      </c>
+      <c r="L64" s="1">
+        <v>95</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="3"/>
+        <v>('KE1115', '김포', '김해(부산)', '대한항공', 102, TIMESTAMP('</v>
+      </c>
+      <c r="N64" s="5">
+        <f t="shared" si="4"/>
+        <v>41199.583333333336</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'), '국내선', 95), </v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,10 +3199,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
